--- a/MLdata.xlsx
+++ b/MLdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\课程资源\异步游动\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6DF3D3-F5CD-4DE4-9598-53C88D7CF8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36343C0D-E756-4498-96FE-A85375FC56B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4260" yWindow="90" windowWidth="28155" windowHeight="20790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="70">
   <si>
     <t>S.Alben 2010</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,14 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Copepod Acartia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kiorboe et al. 2010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Daniels et al. 2021</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,14 +61,6 @@
   </si>
   <si>
     <t>Ford et al. 2021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Isopod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alexander 1988</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -93,10 +77,6 @@
   </si>
   <si>
     <t>Lenz et al. 2015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未知</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -216,10 +196,6 @@
       </rPr>
       <t>Ⅵ</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -446,13 +422,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -471,7 +446,6 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -546,7 +520,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'literature data'!$L$2:$L$30</c:f>
+              <c:f>'literature data'!$L$2:$L$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="27"/>
@@ -636,7 +610,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'literature data'!$E$2:$E$30</c:f>
+              <c:f>'literature data'!$E$2:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="27"/>
@@ -975,7 +949,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'literature data'!$G$2:$G$28</c:f>
+              <c:f>'literature data'!$G$2:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1059,7 +1033,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'literature data'!$E$2:$E$28</c:f>
+              <c:f>'literature data'!$E$2:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2454,13 +2428,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>352252</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>41268</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>405848</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>99391</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2490,13 +2464,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1654085</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>79316</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>476006</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>133106</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2788,10 +2762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2807,95 +2781,95 @@
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="16.75" customWidth="1"/>
     <col min="11" max="11" width="20.875" customWidth="1"/>
-    <col min="12" max="12" width="19.875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="19.875" style="5" customWidth="1"/>
     <col min="13" max="13" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="B2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="6">
         <v>6</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <v>9.4E-2</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="17">
         <v>2.9</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="17">
         <v>1.103</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>0.03</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>0.42899999999999999</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>0.39200000000000002</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="19">
+      <c r="K2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="18">
         <v>0.15</v>
       </c>
-      <c r="M2" s="7" t="s">
-        <v>22</v>
+      <c r="M2" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>34</v>
+      <c r="A3" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1">
         <v>6.3570000000000002E-2</v>
@@ -2904,314 +2878,308 @@
         <v>1440</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="6">
+        <v>27</v>
+      </c>
+      <c r="L3" s="5">
         <v>0.25</v>
       </c>
       <c r="M3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="3">
-        <v>134</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.1113</v>
-      </c>
-      <c r="F4" s="5">
-        <v>178</v>
-      </c>
-      <c r="G4" s="5">
-        <v>160</v>
-      </c>
-      <c r="H4" s="3">
-        <v>8.48E-2</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0.74</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="20">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>57.17</v>
+      </c>
+      <c r="D4">
+        <v>93</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <f>2*3.1415*D4*C4/180*3.1415*J4*J4</f>
+        <v>1.9142206782917299</v>
+      </c>
+      <c r="H4">
+        <v>9.2270000000000008E-3</v>
+      </c>
+      <c r="J4">
+        <v>5.7299999999999997E-2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="5">
         <f>H4/J4</f>
-        <v>0.106</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>45</v>
+        <v>0.16102966841186739</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>46</v>
+      <c r="A5" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C5">
-        <v>57.17</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>93</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.10440000000000001</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.1129</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1.45</v>
+      </c>
       <c r="G5" s="2">
         <f>2*3.1415*D5*C5/180*3.1415*J5*J5</f>
-        <v>1.9142206782917299</v>
+        <v>2.5712915053854175</v>
       </c>
       <c r="H5">
-        <v>9.2270000000000008E-3</v>
+        <v>1.9E-2</v>
+      </c>
+      <c r="I5">
+        <v>0.14499999999999999</v>
       </c>
       <c r="J5">
-        <v>5.7299999999999997E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="K5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" s="6">
+        <v>12</v>
+      </c>
+      <c r="L5" s="5">
         <f>H5/J5</f>
-        <v>0.16102966841186739</v>
+        <v>0.29230769230769227</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>15</v>
+      <c r="A6" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6">
         <v>40</v>
       </c>
-      <c r="C6">
-        <v>50</v>
-      </c>
-      <c r="D6">
-        <v>111</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.1129</v>
+      <c r="E6" s="1">
+        <v>0.1416</v>
       </c>
       <c r="F6" s="2">
-        <v>1.45</v>
+        <v>53</v>
       </c>
       <c r="G6" s="2">
-        <f>2*3.1415*D6*C6/180*3.1415*J6*J6</f>
-        <v>2.5712915053854175</v>
+        <v>13</v>
       </c>
       <c r="H6">
-        <v>1.9E-2</v>
+        <v>0.12</v>
       </c>
       <c r="I6">
-        <v>0.14499999999999999</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>6.5000000000000002E-2</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="6">
+        <v>2</v>
+      </c>
+      <c r="L6" s="5">
         <f>H6/J6</f>
-        <v>0.29230769230769227</v>
+        <v>0.57692307692307698</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7">
+        <v>10.9</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.22389999999999999</v>
+      </c>
+      <c r="F7">
+        <v>4960</v>
+      </c>
+      <c r="G7" s="2">
+        <v>770</v>
+      </c>
+      <c r="H7">
+        <v>2.6</v>
+      </c>
+      <c r="I7">
+        <v>32</v>
+      </c>
+      <c r="J7">
+        <v>3.7879999999999998</v>
+      </c>
+      <c r="K7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <f>H7/J7</f>
+        <v>0.68637803590285118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8">
+        <v>6.2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.19289999999999999</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4400</v>
+      </c>
+      <c r="G8" s="2">
+        <v>446</v>
+      </c>
+      <c r="H8">
+        <v>3.375</v>
+      </c>
+      <c r="I8">
+        <v>40</v>
+      </c>
+      <c r="J8">
+        <v>6.5</v>
+      </c>
+      <c r="K8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9">
+        <v>43</v>
+      </c>
+      <c r="D9">
+        <v>1.3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.111</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
+        <v>3000</v>
+      </c>
+      <c r="J9">
+        <v>41</v>
+      </c>
+      <c r="K9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.12379999999999999</v>
+      </c>
+      <c r="F10" s="2">
+        <v>4400</v>
+      </c>
+      <c r="G10" s="2">
+        <v>183.26</v>
+      </c>
+      <c r="H10">
+        <v>2.214</v>
+      </c>
+      <c r="I10">
+        <v>30</v>
+      </c>
+      <c r="J10">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7">
-        <v>40</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.1416</v>
-      </c>
-      <c r="F7" s="2">
-        <v>53</v>
-      </c>
-      <c r="G7" s="2">
-        <v>13</v>
-      </c>
-      <c r="H7">
-        <v>0.12</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="K7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L7" s="6">
-        <f>H7/J7</f>
-        <v>0.57692307692307698</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8">
-        <v>10.9</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.22389999999999999</v>
-      </c>
-      <c r="F8">
-        <v>4960</v>
-      </c>
-      <c r="G8" s="2">
-        <v>770</v>
-      </c>
-      <c r="H8">
-        <v>2.6</v>
-      </c>
-      <c r="I8">
-        <v>32</v>
-      </c>
-      <c r="J8">
-        <v>3.7879999999999998</v>
-      </c>
-      <c r="K8" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6">
-        <f>H8/J8</f>
-        <v>0.68637803590285118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9">
-        <v>6.2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.19289999999999999</v>
-      </c>
-      <c r="F9" s="2">
-        <v>4400</v>
-      </c>
-      <c r="G9" s="2">
-        <v>446</v>
-      </c>
-      <c r="H9">
-        <v>3.375</v>
-      </c>
-      <c r="I9">
-        <v>40</v>
-      </c>
-      <c r="J9">
-        <v>6.5</v>
-      </c>
-      <c r="K9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="6">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10">
-        <v>43</v>
-      </c>
-      <c r="D10">
-        <v>1.3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.111</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
-        <v>3000</v>
-      </c>
-      <c r="J10">
-        <v>41</v>
-      </c>
       <c r="K10" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" s="6">
-        <v>0.44</v>
+        <v>3</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" ref="L10:L25" si="0">H10/J10</f>
+        <v>0.44279999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
+      <c r="A11" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="D11">
+        <v>8.33</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="F11" s="2">
+        <v>13000</v>
+      </c>
+      <c r="G11" s="2">
+        <v>700</v>
+      </c>
+      <c r="H11">
+        <v>5.04</v>
+      </c>
+      <c r="I11">
+        <v>50.6</v>
+      </c>
+      <c r="J11">
+        <v>9</v>
+      </c>
+      <c r="K11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="1">
-        <v>0.12379999999999999</v>
-      </c>
-      <c r="F11" s="2">
-        <v>4400</v>
-      </c>
-      <c r="G11" s="2">
-        <v>183.26</v>
-      </c>
-      <c r="H11">
-        <v>2.214</v>
-      </c>
-      <c r="I11">
-        <v>30</v>
-      </c>
-      <c r="J11">
-        <v>5</v>
-      </c>
-      <c r="K11" t="s">
-        <v>3</v>
-      </c>
-      <c r="L11" s="6">
-        <f t="shared" ref="L11:L26" si="0">H11/J11</f>
-        <v>0.44279999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>9</v>
-      </c>
       <c r="D12">
-        <v>8.33</v>
+        <v>8.35</v>
       </c>
       <c r="E12" s="1">
-        <v>0.13</v>
+        <v>0.125</v>
       </c>
       <c r="F12" s="2">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="G12" s="2">
         <v>700</v>
@@ -3220,31 +3188,31 @@
         <v>5.04</v>
       </c>
       <c r="I12">
-        <v>50.6</v>
+        <v>57.9</v>
       </c>
       <c r="J12">
         <v>9</v>
       </c>
       <c r="K12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="6">
+        <v>8</v>
+      </c>
+      <c r="L12" s="5">
         <f t="shared" si="0"/>
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>9</v>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="D13">
-        <v>8.35</v>
+        <v>8.33</v>
       </c>
       <c r="E13" s="1">
-        <v>0.125</v>
+        <v>0.1133</v>
       </c>
       <c r="F13" s="2">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="G13" s="2">
         <v>700</v>
@@ -3253,69 +3221,69 @@
         <v>5.04</v>
       </c>
       <c r="I13">
-        <v>57.9</v>
+        <v>56.3</v>
       </c>
       <c r="J13">
         <v>9</v>
       </c>
       <c r="K13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" s="6">
+        <v>8</v>
+      </c>
+      <c r="L13" s="5">
         <f t="shared" si="0"/>
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>9</v>
+      <c r="A14" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="D14">
-        <v>8.33</v>
+        <v>4</v>
       </c>
       <c r="E14" s="1">
-        <v>0.1133</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="F14" s="2">
-        <v>19000</v>
+        <v>44000</v>
       </c>
       <c r="G14" s="2">
-        <v>700</v>
-      </c>
-      <c r="H14">
-        <v>5.04</v>
+        <v>8000</v>
+      </c>
+      <c r="H14" s="8">
+        <v>7.5</v>
       </c>
       <c r="I14">
-        <v>56.3</v>
+        <v>114</v>
       </c>
       <c r="J14">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="6">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5">
         <f t="shared" si="0"/>
-        <v>0.56000000000000005</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>35</v>
+      <c r="A15" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="E15" s="1">
-        <v>0.14499999999999999</v>
+        <v>0.155</v>
       </c>
       <c r="F15" s="2">
-        <v>44000</v>
+        <v>65000</v>
       </c>
       <c r="G15" s="2">
-        <v>8000</v>
-      </c>
-      <c r="H15" s="9">
+        <v>12000</v>
+      </c>
+      <c r="H15" s="8">
         <v>7.5</v>
       </c>
       <c r="I15">
@@ -3327,28 +3295,28 @@
       <c r="K15" t="s">
         <v>1</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="5">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>35</v>
+      <c r="A16" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="D16">
         <v>4</v>
       </c>
       <c r="E16" s="1">
-        <v>0.155</v>
+        <v>0.14749999999999999</v>
       </c>
       <c r="F16" s="2">
-        <v>65000</v>
+        <v>23000</v>
       </c>
       <c r="G16" s="2">
-        <v>12000</v>
-      </c>
-      <c r="H16" s="9">
+        <v>5000</v>
+      </c>
+      <c r="H16" s="8">
         <v>7.5</v>
       </c>
       <c r="I16">
@@ -3360,506 +3328,442 @@
       <c r="K16" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="5">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>35</v>
+      <c r="A17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>52.2</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>13.8</v>
       </c>
       <c r="E17" s="1">
-        <v>0.14749999999999999</v>
+        <v>0.155</v>
       </c>
       <c r="F17" s="2">
-        <v>23000</v>
+        <v>170</v>
       </c>
       <c r="G17" s="2">
-        <v>5000</v>
-      </c>
-      <c r="H17" s="9">
-        <v>7.5</v>
+        <v>40</v>
+      </c>
+      <c r="H17">
+        <v>0.30171999999999999</v>
       </c>
       <c r="I17">
-        <v>114</v>
+        <v>4.7</v>
       </c>
       <c r="J17">
-        <v>20</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="K17" t="s">
-        <v>1</v>
-      </c>
-      <c r="L17" s="6">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>10</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0.46</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C18">
-        <v>52.2</v>
+        <v>81</v>
       </c>
       <c r="D18">
-        <v>13.8</v>
+        <v>4.0125000000000002</v>
       </c>
       <c r="E18" s="1">
-        <v>0.155</v>
+        <v>0.12775</v>
       </c>
       <c r="F18" s="2">
-        <v>170</v>
+        <v>840</v>
       </c>
       <c r="G18" s="2">
-        <v>40</v>
+        <f>2*3.1415*D18*C18/180*3.1415*J18*J18</f>
+        <v>115.47200138501252</v>
       </c>
       <c r="H18">
-        <v>0.30171999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="I18">
-        <v>4.7</v>
+        <v>14</v>
       </c>
       <c r="J18">
-        <v>0.89100000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="K18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="6">
-        <v>0.46</v>
+        <v>6</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
-        <v>23</v>
+      <c r="A19" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="C19">
-        <v>81</v>
+        <v>44.5</v>
       </c>
       <c r="D19">
-        <v>4.0125000000000002</v>
+        <v>1.48</v>
       </c>
       <c r="E19" s="1">
-        <v>0.12775</v>
-      </c>
-      <c r="F19" s="2">
-        <v>840</v>
-      </c>
+        <v>0.124</v>
+      </c>
+      <c r="F19" s="2"/>
       <c r="G19" s="2">
         <f>2*3.1415*D19*C19/180*3.1415*J19*J19</f>
-        <v>115.47200138501252</v>
-      </c>
-      <c r="H19">
-        <v>0.9</v>
+        <v>624.62482697498524</v>
+      </c>
+      <c r="H19" s="8">
+        <v>3.9</v>
       </c>
       <c r="I19">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="J19">
-        <v>1.8</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="K19" t="s">
-        <v>8</v>
-      </c>
-      <c r="L19" s="6">
+        <v>6</v>
+      </c>
+      <c r="L19" s="5">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.41935483870967738</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>29</v>
+      <c r="A20" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="C20">
-        <v>44.5</v>
+        <v>70.33</v>
       </c>
       <c r="D20">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="E20" s="1">
-        <v>0.124</v>
-      </c>
-      <c r="F20" s="2"/>
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="F20" s="2">
+        <v>550</v>
+      </c>
       <c r="G20" s="2">
         <f>2*3.1415*D20*C20/180*3.1415*J20*J20</f>
-        <v>624.62482697498524</v>
-      </c>
-      <c r="H20" s="9">
-        <v>3.9</v>
+        <v>1292.3924794767352</v>
+      </c>
+      <c r="H20">
+        <v>4.5</v>
       </c>
       <c r="I20">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="J20">
-        <v>9.3000000000000007</v>
+        <v>10.5</v>
       </c>
       <c r="K20" t="s">
-        <v>8</v>
-      </c>
-      <c r="L20" s="6">
+        <v>6</v>
+      </c>
+      <c r="L20" s="5">
         <f t="shared" si="0"/>
-        <v>0.41935483870967738</v>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
-        <v>30</v>
+      <c r="A21" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="C21">
-        <v>70.33</v>
+        <v>54.33</v>
       </c>
       <c r="D21">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="E21" s="1">
-        <v>0.13300000000000001</v>
+        <v>0.1187</v>
       </c>
       <c r="F21" s="2">
-        <v>550</v>
+        <v>3150</v>
       </c>
       <c r="G21" s="2">
         <f>2*3.1415*D21*C21/180*3.1415*J21*J21</f>
-        <v>1292.3924794767352</v>
+        <v>1202.4819365507799</v>
       </c>
       <c r="H21">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="I21">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="J21">
-        <v>10.5</v>
+        <v>11.6</v>
       </c>
       <c r="K21" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" s="6">
+        <v>6</v>
+      </c>
+      <c r="L21" s="5">
         <f t="shared" si="0"/>
-        <v>0.42857142857142855</v>
+        <v>0.41379310344827586</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
-        <v>31</v>
+      <c r="A22" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="C22">
-        <v>54.33</v>
+        <v>76.2</v>
       </c>
       <c r="D22">
-        <v>1.5</v>
+        <v>3.93</v>
       </c>
       <c r="E22" s="1">
-        <v>0.1187</v>
-      </c>
-      <c r="F22" s="2">
-        <v>3150</v>
-      </c>
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="F22" s="2"/>
       <c r="G22" s="2">
         <f>2*3.1415*D22*C22/180*3.1415*J22*J22</f>
-        <v>1202.4819365507799</v>
+        <v>525.41095415440009</v>
       </c>
       <c r="H22">
-        <v>4.8</v>
+        <v>1.6</v>
       </c>
       <c r="I22">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J22">
-        <v>11.6</v>
+        <v>4</v>
       </c>
       <c r="K22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L22" s="6">
+        <v>6</v>
+      </c>
+      <c r="L22" s="5">
         <f t="shared" si="0"/>
-        <v>0.41379310344827586</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
-        <v>24</v>
+      <c r="A23" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>76.2</v>
+        <v>61.14</v>
       </c>
       <c r="D23">
-        <v>3.93</v>
+        <v>7.2880000000000003</v>
       </c>
       <c r="E23" s="1">
-        <v>0.10100000000000001</v>
+        <v>0.1101</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
         <f>2*3.1415*D23*C23/180*3.1415*J23*J23</f>
-        <v>525.41095415440009</v>
-      </c>
-      <c r="H23">
-        <v>1.6</v>
+        <v>410.92391092859123</v>
+      </c>
+      <c r="H23" s="8">
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="K23" t="s">
-        <v>8</v>
-      </c>
-      <c r="L23" s="6">
+        <v>32</v>
+      </c>
+      <c r="L23" s="5">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.34482758620689657</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
-        <v>25</v>
+      <c r="A24" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="C24">
-        <v>61.14</v>
+        <v>77</v>
       </c>
       <c r="D24">
-        <v>7.2880000000000003</v>
+        <v>3.3050000000000002</v>
       </c>
       <c r="E24" s="1">
-        <v>0.1101</v>
+        <v>0.1</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
         <f>2*3.1415*D24*C24/180*3.1415*J24*J24</f>
-        <v>410.92391092859123</v>
-      </c>
-      <c r="H24" s="9">
-        <v>1</v>
+        <v>1328.5930893370714</v>
+      </c>
+      <c r="H24" s="8">
+        <v>3</v>
       </c>
       <c r="I24">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="J24">
-        <v>2.9</v>
+        <v>6.9</v>
       </c>
       <c r="K24" t="s">
-        <v>37</v>
-      </c>
-      <c r="L24" s="6">
+        <v>32</v>
+      </c>
+      <c r="L24" s="5">
         <f t="shared" si="0"/>
-        <v>0.34482758620689657</v>
+        <v>0.43478260869565216</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
-        <v>26</v>
+      <c r="A25" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="C25">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="D25">
-        <v>3.3050000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="E25" s="1">
-        <v>0.1</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
         <f>2*3.1415*D25*C25/180*3.1415*J25*J25</f>
-        <v>1328.5930893370714</v>
-      </c>
-      <c r="H25" s="9">
-        <v>3</v>
+        <v>463.15321419250012</v>
+      </c>
+      <c r="H25" s="8">
+        <v>2.5</v>
       </c>
       <c r="I25">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="J25">
-        <v>6.9</v>
+        <v>5.7</v>
       </c>
       <c r="K25" t="s">
-        <v>37</v>
-      </c>
-      <c r="L25" s="6">
+        <v>32</v>
+      </c>
+      <c r="L25" s="5">
         <f t="shared" si="0"/>
-        <v>0.43478260869565216</v>
+        <v>0.43859649122807015</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
-        <v>27</v>
+      <c r="A26" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="C26">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D26">
-        <v>2.5</v>
+        <v>3.16</v>
       </c>
       <c r="E26" s="1">
-        <v>9.9000000000000005E-2</v>
+        <v>0.115</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2">
         <f>2*3.1415*D26*C26/180*3.1415*J26*J26</f>
-        <v>463.15321419250012</v>
-      </c>
-      <c r="H26" s="9">
-        <v>2.5</v>
+        <v>919.07546157590696</v>
+      </c>
+      <c r="H26" s="8">
+        <v>2.8</v>
       </c>
       <c r="I26">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J26">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="K26" t="s">
-        <v>37</v>
-      </c>
-      <c r="L26" s="6">
-        <f t="shared" si="0"/>
-        <v>0.43859649122807015</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27"/>
-      <c r="D27" s="3">
-        <v>10</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0.11</v>
-      </c>
-      <c r="F27" s="5">
-        <v>4700</v>
-      </c>
-      <c r="G27" s="5">
-        <v>523</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="3">
-        <v>31.4</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L27" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="L26" s="5">
+        <f>H26/J26</f>
+        <v>0.45161290322580638</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27">
+        <v>50.9</v>
+      </c>
+      <c r="D27">
+        <v>16.739999999999998</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.13109999999999999</v>
+      </c>
+      <c r="G27" s="2">
+        <v>23.93</v>
+      </c>
+      <c r="H27">
+        <v>0.48</v>
+      </c>
+      <c r="I27">
+        <v>11.56</v>
+      </c>
+      <c r="J27">
+        <v>0.62</v>
+      </c>
+      <c r="K27" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" s="5">
+        <f t="shared" ref="L27:L28" si="1">H27/J27</f>
+        <v>0.77419354838709675</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
-        <v>28</v>
+      <c r="A28" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
       </c>
       <c r="C28">
-        <v>69</v>
+        <v>52.1</v>
       </c>
       <c r="D28">
-        <v>3.16</v>
+        <v>11.23</v>
       </c>
       <c r="E28" s="1">
-        <v>0.115</v>
-      </c>
-      <c r="F28" s="2"/>
+        <v>0.13039999999999999</v>
+      </c>
       <c r="G28" s="2">
-        <f>2*3.1415*D28*C28/180*3.1415*J28*J28</f>
-        <v>919.07546157590696</v>
-      </c>
-      <c r="H28" s="9">
-        <v>2.8</v>
+        <v>68.27</v>
+      </c>
+      <c r="H28" s="8">
+        <v>0.63</v>
       </c>
       <c r="I28">
-        <v>59</v>
+        <v>38.99</v>
       </c>
       <c r="J28">
-        <v>6.2</v>
+        <v>0.93</v>
       </c>
       <c r="K28" t="s">
-        <v>8</v>
-      </c>
-      <c r="L28" s="6">
-        <f>H28/J28</f>
-        <v>0.45161290322580638</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29">
-        <v>50.9</v>
-      </c>
-      <c r="D29">
-        <v>16.739999999999998</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0.13109999999999999</v>
-      </c>
-      <c r="G29" s="2">
-        <v>23.93</v>
-      </c>
-      <c r="H29">
-        <v>0.48</v>
-      </c>
-      <c r="I29">
-        <v>11.56</v>
-      </c>
-      <c r="J29">
-        <v>0.62</v>
-      </c>
-      <c r="K29" t="s">
-        <v>38</v>
-      </c>
-      <c r="L29" s="6">
-        <f t="shared" ref="L29:L30" si="1">H29/J29</f>
-        <v>0.77419354838709675</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30">
-        <v>52.1</v>
-      </c>
-      <c r="D30">
-        <v>11.23</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0.13039999999999999</v>
-      </c>
-      <c r="G30" s="2">
-        <v>68.27</v>
-      </c>
-      <c r="H30" s="9">
-        <v>0.63</v>
-      </c>
-      <c r="I30">
-        <v>38.99</v>
-      </c>
-      <c r="J30">
-        <v>0.93</v>
-      </c>
-      <c r="K30" t="s">
-        <v>38</v>
-      </c>
-      <c r="L30" s="6">
+        <v>33</v>
+      </c>
+      <c r="L28" s="5">
         <f t="shared" si="1"/>
         <v>0.67741935483870963</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L29">
-    <sortCondition ref="A1:A29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L27">
+    <sortCondition ref="A1:A27"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3884,40 +3788,40 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" t="s">
+      <c r="M1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>60</v>
-      </c>
       <c r="T1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="U1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -4467,37 +4371,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
+    <row r="16" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
         <f t="shared" si="1"/>
         <v>0.48543689320388356</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>0.25</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>5.1593124027818099E-2</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="7">
         <v>4.1521408681656401E-2</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="7">
         <v>0.82092033133377695</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="7">
         <f t="shared" ref="M16:M27" si="2">L16/0.0515</f>
         <v>0.48543689320388356</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="7">
         <v>0.25</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="Q16" s="7">
         <v>0.84838638003465705</v>
       </c>
     </row>
@@ -4535,37 +4439,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
+    <row r="18" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
         <f t="shared" si="1"/>
         <v>0.97087378640776711</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>0.05</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>0.25</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <v>4.4539017291747703E-2</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="7">
         <v>4.5152612714375699E-2</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="7">
         <v>0.89271291526403795</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="7">
         <v>0.05</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="7">
         <f t="shared" si="2"/>
         <v>0.97087378640776711</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="7">
         <v>0.25</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="Q18" s="7">
         <v>0.73239014621547505</v>
       </c>
     </row>
@@ -4581,13 +4485,13 @@
         <v>0.25</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J19" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L19">
         <v>0.1</v>
@@ -4600,7 +4504,7 @@
         <v>0.25</v>
       </c>
       <c r="Q19" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -4615,13 +4519,13 @@
         <v>0.25</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J20" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L20">
         <v>0.15</v>
@@ -4634,7 +4538,7 @@
         <v>0.25</v>
       </c>
       <c r="Q20" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -4649,13 +4553,13 @@
         <v>0.25</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J21" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L21">
         <v>0.2</v>
@@ -4668,7 +4572,7 @@
         <v>0.25</v>
       </c>
       <c r="Q21" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -4683,13 +4587,13 @@
         <v>0.25</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J22" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L22">
         <v>0.25</v>
@@ -4702,7 +4606,7 @@
         <v>0.25</v>
       </c>
       <c r="Q22" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -4717,13 +4621,13 @@
         <v>0.25</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J23" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L23">
         <v>0.27500000000000002</v>
@@ -4736,7 +4640,7 @@
         <v>0.25</v>
       </c>
       <c r="Q23" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -4751,13 +4655,13 @@
         <v>0.25</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J24" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L24">
         <v>0.3</v>
@@ -4770,7 +4674,7 @@
         <v>0.25</v>
       </c>
       <c r="Q24" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -4785,13 +4689,13 @@
         <v>0.25</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J25" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L25">
         <v>0.35</v>
@@ -4804,7 +4708,7 @@
         <v>0.25</v>
       </c>
       <c r="Q25" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -4819,13 +4723,13 @@
         <v>0.25</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H26" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J26" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L26">
         <v>0.4</v>
@@ -4838,7 +4742,7 @@
         <v>0.25</v>
       </c>
       <c r="Q26" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -4853,13 +4757,13 @@
         <v>0.25</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J27" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L27">
         <v>0.45</v>
@@ -4872,7 +4776,7 @@
         <v>0.25</v>
       </c>
       <c r="Q27" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -5057,13 +4961,13 @@
         <v>0.375</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J33" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L33">
         <v>0.1</v>
@@ -5076,7 +4980,7 @@
         <v>0.375</v>
       </c>
       <c r="Q33" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
@@ -5091,13 +4995,13 @@
         <v>0.375</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J34" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L34">
         <v>0.125</v>
@@ -5110,7 +5014,7 @@
         <v>0.375</v>
       </c>
       <c r="Q34" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
@@ -5125,13 +5029,13 @@
         <v>0.375</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J35" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L35">
         <v>0.15</v>
@@ -5144,7 +5048,7 @@
         <v>0.375</v>
       </c>
       <c r="Q35" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
@@ -5159,13 +5063,13 @@
         <v>0.375</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H36" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J36" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L36">
         <v>0.2</v>
@@ -5178,7 +5082,7 @@
         <v>0.375</v>
       </c>
       <c r="Q36" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
@@ -5193,13 +5097,13 @@
         <v>0.375</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H37" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J37" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L37">
         <v>0.25</v>
@@ -5212,7 +5116,7 @@
         <v>0.375</v>
       </c>
       <c r="Q37" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
@@ -5227,13 +5131,13 @@
         <v>0.375</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H38" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J38" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L38">
         <v>0.3</v>
@@ -5246,7 +5150,7 @@
         <v>0.375</v>
       </c>
       <c r="Q38" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
@@ -5261,13 +5165,13 @@
         <v>0.375</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H39" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J39" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L39">
         <v>0.35</v>
@@ -5280,7 +5184,7 @@
         <v>0.375</v>
       </c>
       <c r="Q39" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
@@ -5295,13 +5199,13 @@
         <v>0.375</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H40" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J40" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L40">
         <v>0.4</v>
@@ -5314,7 +5218,7 @@
         <v>0.375</v>
       </c>
       <c r="Q40" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
@@ -5499,13 +5403,13 @@
         <v>0.5</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H46" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J46" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L46">
         <v>0.125</v>
@@ -5518,7 +5422,7 @@
         <v>0.5</v>
       </c>
       <c r="Q46" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
@@ -5533,13 +5437,13 @@
         <v>0.5</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H47" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J47" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L47">
         <v>0.15</v>
@@ -5552,7 +5456,7 @@
         <v>0.5</v>
       </c>
       <c r="Q47" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
@@ -5567,13 +5471,13 @@
         <v>0.5</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H48" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J48" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L48">
         <v>0.2</v>
@@ -5586,7 +5490,7 @@
         <v>0.5</v>
       </c>
       <c r="Q48" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
@@ -5601,13 +5505,13 @@
         <v>0.5</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H49" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J49" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L49">
         <v>0.25</v>
@@ -5620,7 +5524,7 @@
         <v>0.5</v>
       </c>
       <c r="Q49" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
@@ -5635,13 +5539,13 @@
         <v>0.5</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H50" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J50" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L50">
         <v>0.3</v>
@@ -5654,7 +5558,7 @@
         <v>0.5</v>
       </c>
       <c r="Q50" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
@@ -5669,13 +5573,13 @@
         <v>0.5</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H51" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J51" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L51">
         <v>0.35</v>
@@ -5688,7 +5592,7 @@
         <v>0.5</v>
       </c>
       <c r="Q51" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
@@ -5703,13 +5607,13 @@
         <v>0.5</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H52" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J52" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L52">
         <v>0.45</v>
@@ -5722,7 +5626,7 @@
         <v>0.5</v>
       </c>
       <c r="Q52" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
@@ -5737,13 +5641,13 @@
         <v>0.5</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H53" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J53" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L53">
         <v>0.4</v>
@@ -5756,7 +5660,7 @@
         <v>0.5</v>
       </c>
       <c r="Q53" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
@@ -5941,13 +5845,13 @@
         <v>0.625</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H59" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J59" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L59">
         <v>0.15</v>
@@ -5960,7 +5864,7 @@
         <v>0.625</v>
       </c>
       <c r="Q59" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
@@ -5975,13 +5879,13 @@
         <v>0.625</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H60" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J60" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L60">
         <v>0.2</v>
@@ -5994,7 +5898,7 @@
         <v>0.625</v>
       </c>
       <c r="Q60" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
@@ -6009,13 +5913,13 @@
         <v>0.625</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H61" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J61" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L61">
         <v>0.25</v>
@@ -6028,7 +5932,7 @@
         <v>0.625</v>
       </c>
       <c r="Q61" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
@@ -6043,13 +5947,13 @@
         <v>0.625</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H62" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J62" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L62">
         <v>0.3</v>
@@ -6062,7 +5966,7 @@
         <v>0.625</v>
       </c>
       <c r="Q62" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
@@ -6077,13 +5981,13 @@
         <v>0.625</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H63" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J63" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L63">
         <v>0.35</v>
@@ -6096,7 +6000,7 @@
         <v>0.625</v>
       </c>
       <c r="Q63" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
@@ -6111,13 +6015,13 @@
         <v>0.625</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H64" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J64" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L64">
         <v>0.4</v>
@@ -6130,7 +6034,7 @@
         <v>0.625</v>
       </c>
       <c r="Q64" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
@@ -6145,13 +6049,13 @@
         <v>0.625</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J65" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L65">
         <v>0.45</v>
@@ -6164,7 +6068,7 @@
         <v>0.625</v>
       </c>
       <c r="Q65" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
@@ -6179,13 +6083,13 @@
         <v>0.625</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H66" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J66" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L66">
         <v>0.5</v>
@@ -6198,7 +6102,7 @@
         <v>0.625</v>
       </c>
       <c r="Q66" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
@@ -6303,28 +6207,28 @@
         <v>0.95030501113948596</v>
       </c>
     </row>
-    <row r="70" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="9"/>
         <v>0.6859756097560975</v>
       </c>
-      <c r="B70" s="8">
+      <c r="B70" s="7">
         <v>0.1125</v>
       </c>
       <c r="D70">
         <v>0.75</v>
       </c>
       <c r="E70"/>
-      <c r="F70" s="8">
+      <c r="F70" s="7">
         <v>0.13194453253822699</v>
       </c>
-      <c r="H70" s="8">
+      <c r="H70" s="7">
         <v>0.127796939625682</v>
       </c>
-      <c r="J70" s="8">
+      <c r="J70" s="7">
         <v>0.97577265954685399</v>
       </c>
-      <c r="L70" s="8">
+      <c r="L70" s="7">
         <v>0.1125</v>
       </c>
       <c r="M70">
@@ -6334,7 +6238,7 @@
       <c r="O70">
         <v>0.75</v>
       </c>
-      <c r="Q70" s="8">
+      <c r="Q70" s="7">
         <v>0.98745496980501601</v>
       </c>
     </row>
@@ -6372,27 +6276,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="8">
+    <row r="72" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="7">
         <f t="shared" si="9"/>
         <v>0.83841463414634154</v>
       </c>
-      <c r="B72" s="8">
+      <c r="B72" s="7">
         <v>0.13750000000000001</v>
       </c>
-      <c r="D72" s="8">
+      <c r="D72" s="7">
         <v>0.75</v>
       </c>
-      <c r="F72" s="8">
+      <c r="F72" s="7">
         <v>0.13164030775878099</v>
       </c>
-      <c r="H72" s="8">
+      <c r="H72" s="7">
         <v>0.13069302712314501</v>
       </c>
-      <c r="J72" s="8">
+      <c r="J72" s="7">
         <v>0.99788526261822796</v>
       </c>
-      <c r="L72" s="8">
+      <c r="L72" s="7">
         <v>0.13750000000000001</v>
       </c>
       <c r="M72">
@@ -6402,7 +6306,7 @@
       <c r="O72">
         <v>0.75</v>
       </c>
-      <c r="Q72" s="8">
+      <c r="Q72" s="7">
         <v>0.98517819285471098</v>
       </c>
     </row>
@@ -6440,27 +6344,27 @@
         <v>0.908823109984078</v>
       </c>
     </row>
-    <row r="74" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="8">
+    <row r="74" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="7">
         <f t="shared" si="9"/>
         <v>0.97560975609756095</v>
       </c>
-      <c r="B74" s="8">
+      <c r="B74" s="7">
         <v>0.16</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D74" s="7">
         <v>0.75</v>
       </c>
-      <c r="F74" s="8">
+      <c r="F74" s="7">
         <v>9.8850939195144899E-2</v>
       </c>
-      <c r="H74" s="8">
+      <c r="H74" s="7">
         <v>0.117951740485921</v>
       </c>
-      <c r="J74" s="8">
+      <c r="J74" s="7">
         <v>0.90060124952317899</v>
       </c>
-      <c r="L74" s="8">
+      <c r="L74" s="7">
         <v>0.16</v>
       </c>
       <c r="M74">
@@ -6470,7 +6374,7 @@
       <c r="O74">
         <v>0.75</v>
       </c>
-      <c r="Q74" s="8">
+      <c r="Q74" s="7">
         <v>0.73978700974107703</v>
       </c>
     </row>
@@ -6486,13 +6390,13 @@
         <v>0.75</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H75" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J75" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L75">
         <v>0.2</v>
@@ -6505,7 +6409,7 @@
         <v>0.75</v>
       </c>
       <c r="Q75" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
@@ -6520,13 +6424,13 @@
         <v>0.75</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H76" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J76" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L76">
         <v>0.25</v>
@@ -6539,7 +6443,7 @@
         <v>0.75</v>
       </c>
       <c r="Q76" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
@@ -6554,13 +6458,13 @@
         <v>0.75</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H77" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J77" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L77">
         <v>0.3</v>
@@ -6573,7 +6477,7 @@
         <v>0.75</v>
       </c>
       <c r="Q77" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
@@ -6588,13 +6492,13 @@
         <v>0.75</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H78" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J78" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L78">
         <v>0.35</v>
@@ -6607,7 +6511,7 @@
         <v>0.75</v>
       </c>
       <c r="Q78" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
@@ -6622,13 +6526,13 @@
         <v>0.75</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H79" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J79" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L79">
         <v>0.4</v>
@@ -6641,7 +6545,7 @@
         <v>0.75</v>
       </c>
       <c r="Q79" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
@@ -6928,13 +6832,13 @@
         <v>0.875</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H88" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J88" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L88">
         <v>0.22500000000000001</v>
@@ -6947,7 +6851,7 @@
         <v>0.875</v>
       </c>
       <c r="Q88" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
@@ -6962,13 +6866,13 @@
         <v>0.875</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H89" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J89" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L89">
         <v>0.25</v>
@@ -6981,7 +6885,7 @@
         <v>0.875</v>
       </c>
       <c r="Q89" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
@@ -6996,13 +6900,13 @@
         <v>0.875</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H90" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J90" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L90">
         <v>0.3</v>
@@ -7015,7 +6919,7 @@
         <v>0.875</v>
       </c>
       <c r="Q90" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
@@ -7030,13 +6934,13 @@
         <v>0.875</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H91" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J91" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L91">
         <v>0.4</v>
@@ -7049,7 +6953,7 @@
         <v>0.875</v>
       </c>
       <c r="Q91" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
@@ -7064,13 +6968,13 @@
         <v>0.875</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H92" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J92" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L92">
         <v>0.45</v>
@@ -7083,7 +6987,7 @@
         <v>0.875</v>
       </c>
       <c r="Q92" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
@@ -7336,13 +7240,13 @@
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H100" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J100" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L100">
         <v>0.25</v>
@@ -7355,7 +7259,7 @@
         <v>1</v>
       </c>
       <c r="Q100" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
@@ -7370,13 +7274,13 @@
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H101" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J101" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L101">
         <v>0.27500000000000002</v>
@@ -7389,7 +7293,7 @@
         <v>1</v>
       </c>
       <c r="Q101" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.2">
@@ -7404,13 +7308,13 @@
         <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H102" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J102" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L102">
         <v>0.3</v>
@@ -7423,7 +7327,7 @@
         <v>1</v>
       </c>
       <c r="Q102" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.2">
@@ -7438,13 +7342,13 @@
         <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H103" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J103" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L103">
         <v>0.35</v>
@@ -7457,7 +7361,7 @@
         <v>1</v>
       </c>
       <c r="Q103" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
@@ -7472,13 +7376,13 @@
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H104" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J104" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L104">
         <v>0.4</v>
@@ -7491,7 +7395,7 @@
         <v>1</v>
       </c>
       <c r="Q104" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
@@ -7506,13 +7410,13 @@
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H105" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J105" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L105">
         <v>0.45</v>
@@ -7525,7 +7429,7 @@
         <v>1</v>
       </c>
       <c r="Q105" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
@@ -7812,13 +7716,13 @@
         <v>1.125</v>
       </c>
       <c r="F114" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H114" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J114" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L114">
         <v>0.3</v>
@@ -7831,7 +7735,7 @@
         <v>1.125</v>
       </c>
       <c r="Q114" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.2">
@@ -7846,13 +7750,13 @@
         <v>1.125</v>
       </c>
       <c r="F115" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H115" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J115" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L115">
         <v>0.35</v>
@@ -7865,7 +7769,7 @@
         <v>1.125</v>
       </c>
       <c r="Q115" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.2">
@@ -7880,13 +7784,13 @@
         <v>1.125</v>
       </c>
       <c r="F116" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H116" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J116" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L116">
         <v>0.4</v>
@@ -7899,7 +7803,7 @@
         <v>1.125</v>
       </c>
       <c r="Q116" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.2">
@@ -7914,13 +7818,13 @@
         <v>1.125</v>
       </c>
       <c r="F117" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H117" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J117" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L117">
         <v>0.45</v>
@@ -7933,7 +7837,7 @@
         <v>1.125</v>
       </c>
       <c r="Q117" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.2">
@@ -7948,13 +7852,13 @@
         <v>1.125</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H118" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J118" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L118">
         <v>0.5</v>
@@ -7967,7 +7871,7 @@
         <v>1.125</v>
       </c>
       <c r="Q118" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
@@ -8276,37 +8180,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="8">
+    <row r="128" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="7">
         <f t="shared" si="17"/>
         <v>0.97264437689969607</v>
       </c>
-      <c r="B128" s="8">
+      <c r="B128" s="7">
         <v>0.32</v>
       </c>
-      <c r="D128" s="8">
+      <c r="D128" s="7">
         <v>1.25</v>
       </c>
-      <c r="F128" s="8">
+      <c r="F128" s="7">
         <v>0.103912149783775</v>
       </c>
-      <c r="H128" s="8">
+      <c r="H128" s="7">
         <v>9.5295153906133301E-2</v>
       </c>
-      <c r="J128" s="8">
+      <c r="J128" s="7">
         <v>0.95373653115033996</v>
       </c>
-      <c r="L128" s="8">
+      <c r="L128" s="7">
         <v>0.32</v>
       </c>
-      <c r="M128" s="8">
+      <c r="M128" s="7">
         <f t="shared" si="18"/>
         <v>0.97264437689969607</v>
       </c>
-      <c r="O128" s="8">
+      <c r="O128" s="7">
         <v>1.25</v>
       </c>
-      <c r="Q128" s="8">
+      <c r="Q128" s="7">
         <v>0.98425537408167396</v>
       </c>
     </row>
@@ -8322,13 +8226,13 @@
         <v>1.25</v>
       </c>
       <c r="F129" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H129" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J129" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L129">
         <v>0.32500000000000001</v>
@@ -8341,7 +8245,7 @@
         <v>1.25</v>
       </c>
       <c r="Q129" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.2">
@@ -8356,13 +8260,13 @@
         <v>1.25</v>
       </c>
       <c r="F130" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H130" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J130" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L130">
         <v>0.35</v>
@@ -8375,7 +8279,7 @@
         <v>1.25</v>
       </c>
       <c r="Q130" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.2">
@@ -8390,13 +8294,13 @@
         <v>1.25</v>
       </c>
       <c r="F131" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H131" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J131" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L131">
         <v>0.4</v>
@@ -8409,7 +8313,7 @@
         <v>1.25</v>
       </c>
       <c r="Q131" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.2">
@@ -8764,13 +8668,13 @@
         <v>1.375</v>
       </c>
       <c r="F142" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H142" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J142" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L142">
         <v>0.42499999999999999</v>
@@ -8783,7 +8687,7 @@
         <v>1.375</v>
       </c>
       <c r="Q142" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.2">
@@ -8798,13 +8702,13 @@
         <v>1.375</v>
       </c>
       <c r="F143" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H143" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J143" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L143">
         <v>0.45</v>
@@ -8817,7 +8721,7 @@
         <v>1.375</v>
       </c>
       <c r="Q143" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.2">
@@ -8832,13 +8736,13 @@
         <v>1.375</v>
       </c>
       <c r="F144" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H144" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J144" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L144">
         <v>0.5</v>
@@ -8851,7 +8755,7 @@
         <v>1.375</v>
       </c>
       <c r="Q144" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.2">
